--- a/biology/Zoologie/Emberizidae/Emberizidae.xlsx
+++ b/biology/Zoologie/Emberizidae/Emberizidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Emberizidae (ou emberizidés en français) sont une famille de passereaux de l'ancien monde constituée d'un genre de 44 espèces, depuis la création d'une nouvelle famille, les Passerellidae, qui regroupe tous les anciens genres, à l'exception des Emberiza et des genres Porphyrospiza et Gubernatrix, rattachés à la famille des Thraupidae.
 </t>
@@ -511,12 +523,48 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (8.1, 2018) du Congrès ornithologique international (ordre alphabétique) :
-Emberiza (44 espèces)
-Anciennement
-Aimophila (3 espèces) (rattaché à la famille des Passerellidae)
+Emberiza (44 espèces)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Emberizidae</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emberizidae</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Anciennement</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Aimophila (3 espèces) (rattaché à la famille des Passerellidae)
 Ammodramus (9 espèces) (rattaché à la famille des Passerellidae)
 Amphispiza (2 espèces) (rattaché à la famille des Passerellidae)
 Arremon (19 espèces) (rattaché à la famille des Passerellidae)
@@ -547,31 +595,33 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Emberizidae</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Emberizidae</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Espèces par ordre phylogénique
@@ -619,7 +669,43 @@
 Emberiza pallasi – Bruant de Pallas
 Emberiza yessoensis – Bruant de Yéso
 Emberiza schoeniclus – Bruant des roseaux
-Anciennement
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Emberizidae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Emberizidae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anciennement</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Espèces par ordre phylogénique
 Calamospiza melanocorys – Bruant noir et blanc
 Passerella iliaca – Bruant fauve
